--- a/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -222,24 +222,6 @@
     <t>VALIDAZIONE</t>
   </si>
   <si>
-    <t>LAB</t>
-  </si>
-  <si>
-    <t>LDO</t>
-  </si>
-  <si>
-    <t>RAD</t>
-  </si>
-  <si>
-    <t>CERT_VAC</t>
-  </si>
-  <si>
-    <t>SING_VAC</t>
-  </si>
-  <si>
-    <t>VPS</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -286,12 +268,6 @@
     </r>
   </si>
   <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>PSS</t>
-  </si>
-  <si>
     <t>RSA</t>
   </si>
   <si>
@@ -305,57 +281,6 @@
   </si>
   <si>
     <t>Validazione</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,368</t>
-  </si>
-  <si>
-    <t>28,36,44,52,53,54,55,56,57,58,59,60,61,62</t>
-  </si>
-  <si>
-    <t>6,7,8,9,369</t>
-  </si>
-  <si>
-    <t>29,37,45,63,64,65,66,67,68,69,70,71,72,73,74</t>
-  </si>
-  <si>
-    <t>31,39,47,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93</t>
-  </si>
-  <si>
-    <t>16,17,18,19,371</t>
-  </si>
-  <si>
-    <t>33,41,49,94,95,96,97,98,99,100,101,102,103,104,105,106</t>
-  </si>
-  <si>
-    <t>20,21,22,23,372</t>
-  </si>
-  <si>
-    <t>34,42,50,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121</t>
-  </si>
-  <si>
-    <t>24,25,26,27,373</t>
-  </si>
-  <si>
-    <t>35,43,51,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
-  </si>
-  <si>
-    <t>147,148,149,150,374</t>
-  </si>
-  <si>
-    <t>32,40,48,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169</t>
-  </si>
-  <si>
-    <t>30,38,46,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190</t>
-  </si>
-  <si>
-    <t>LAB - TRASF</t>
-  </si>
-  <si>
-    <t>191,376 più ove possibile fare riferimento agli "ID TEST CASE OK" del Tipo "LAB"</t>
-  </si>
-  <si>
-    <t>Fare riferimento agli "ID TEST CASE KO" del Tipo "LAB"</t>
   </si>
   <si>
     <t>PASS</t>
@@ -403,9 +328,6 @@
     <t>Versione:</t>
   </si>
   <si>
-    <t>444, 445</t>
-  </si>
-  <si>
     <r>
       <t>I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali https://www.hl7.it/realm-italiano/ e coerentemente ai casi di test descritti.</t>
     </r>
@@ -448,19 +370,10 @@
 </t>
   </si>
   <si>
-    <t>RAP</t>
-  </si>
-  <si>
-    <t>417, 418, 419</t>
-  </si>
-  <si>
     <t>8.2.1</t>
   </si>
   <si>
     <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP e RAD, i relativi casi di test con id 444, 417, 446, che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
-  </si>
-  <si>
-    <t>423,424,425,426,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449</t>
   </si>
   <si>
     <t>TIPO DOCUMENTO</t>
@@ -1094,6 +1007,10 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1102,10 +1019,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1422,7 +1335,7 @@
     </row>
     <row r="2" spans="1:1" ht="90">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
@@ -1432,22 +1345,22 @@
     </row>
     <row r="4" spans="1:1" ht="45">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="300">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90">
       <c r="A6" s="17" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1545,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1">
@@ -2557,7 +2470,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2603,10 +2516,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="49" t="s">
-        <v>94</v>
+      <c r="C2" s="43" t="s">
+        <v>65</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="44"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -2627,14 +2540,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="51" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="44"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2655,12 +2568,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="51" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2682,12 +2595,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="51" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="44"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2808,7 +2721,7 @@
         <v>24</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>25</v>
@@ -2823,10 +2736,10 @@
         <v>28</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>29</v>
@@ -2844,7 +2757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="11.1" customHeight="1">
+    <row r="10" spans="1:23" ht="152.25" customHeight="1">
       <c r="A10" s="29">
         <v>1</v>
       </c>
@@ -2852,21 +2765,25 @@
         <v>34</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F10" s="32">
-        <v>45506</v>
+        <v>45509</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="33">
+        <v>45509.440972222219</v>
+      </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
+      <c r="J10" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
@@ -2879,9 +2796,7 @@
       <c r="T10" s="34"/>
       <c r="U10" s="35"/>
       <c r="V10" s="36"/>
-      <c r="W10" s="37" t="s">
-        <v>42</v>
-      </c>
+      <c r="W10" s="37"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1">
       <c r="F11" s="6"/>
@@ -7496,42 +7411,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -7541,7 +7456,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G960"/>
+  <dimension ref="A1:G951"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7555,170 +7470,53 @@
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="38" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="12">
-        <v>446.447</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
+      <c r="C2" s="12">
+        <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>58</v>
+      <c r="D2" s="13">
+        <v>0</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:7" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:7" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:7" ht="14.25" customHeight="1"/>
@@ -7909,15 +7707,15 @@
     <row r="199" ht="14.25" customHeight="1"/>
     <row r="200" ht="14.25" customHeight="1"/>
     <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
     <row r="211" ht="15.75" customHeight="1"/>
     <row r="212" ht="15.75" customHeight="1"/>
     <row r="213" ht="15.75" customHeight="1"/>
@@ -8659,17 +8457,8 @@
     <row r="949" ht="15.75" customHeight="1"/>
     <row r="950" ht="15.75" customHeight="1"/>
     <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:G10"/>
+  <autoFilter ref="A1:G2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -8698,18 +8487,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="507">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1948,18 +1948,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2672,234 +2665,230 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3195,7 +3184,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3265,7 +3254,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4344,10 +4333,10 @@
   <dimension ref="A1:AA809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4393,10 +4382,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="72"/>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="73" t="s">
         <v>503</v>
       </c>
-      <c r="D2" s="81"/>
+      <c r="D2" s="74"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4417,14 +4406,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="74"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4445,12 +4434,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="82" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4472,12 +4461,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="82" t="s">
         <v>506</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="74"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -5576,10 +5565,10 @@
         <v>66</v>
       </c>
       <c r="F35" s="32">
-        <v>45511</v>
+        <v>45512</v>
       </c>
       <c r="G35" s="33">
-        <v>45511</v>
+        <v>45512</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -5595,7 +5584,9 @@
       <c r="Q35" s="34"/>
       <c r="R35" s="34"/>
       <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
+      <c r="T35" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="U35" s="35"/>
       <c r="V35" s="36"/>
       <c r="W35" s="37" t="s">
@@ -17453,7 +17444,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -19723,12 +19714,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19990,21 +19984,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20029,18 +20029,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="506">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1320,9 +1320,6 @@
   <si>
     <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT4_KO</t>
   </si>
   <si>
     <t>417, 418, 419</t>
@@ -3210,7 +3207,7 @@
     </row>
     <row r="4" spans="1:1" ht="45">
       <c r="A4" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="300">
@@ -4330,13 +4327,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA809"/>
+  <dimension ref="A1:Y809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4383,7 +4380,7 @@
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="73" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D2" s="74"/>
       <c r="F2" s="6"/>
@@ -4411,7 +4408,7 @@
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="81" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D3" s="74"/>
       <c r="F3" s="6"/>
@@ -4437,7 +4434,7 @@
       <c r="A4" s="77"/>
       <c r="B4" s="78"/>
       <c r="C4" s="81" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="4"/>
@@ -4464,7 +4461,7 @@
       <c r="A5" s="79"/>
       <c r="B5" s="80"/>
       <c r="C5" s="82" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D5" s="74"/>
       <c r="F5" s="6"/>
@@ -4637,7 +4634,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
@@ -4674,7 +4671,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="33"/>
@@ -4711,7 +4708,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
@@ -4748,7 +4745,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
@@ -4785,7 +4782,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
@@ -4822,7 +4819,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
@@ -4859,7 +4856,7 @@
         <v>44</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
@@ -4896,7 +4893,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
@@ -4933,7 +4930,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
@@ -4970,7 +4967,7 @@
         <v>51</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
@@ -5007,7 +5004,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
@@ -5044,7 +5041,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="33"/>
@@ -5081,7 +5078,7 @@
         <v>54</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
@@ -5118,7 +5115,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
@@ -5155,7 +5152,7 @@
         <v>57</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="33"/>
@@ -5192,7 +5189,7 @@
         <v>58</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
@@ -5229,7 +5226,7 @@
         <v>59</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
@@ -5266,7 +5263,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="33"/>
@@ -5303,7 +5300,7 @@
         <v>62</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
@@ -5340,7 +5337,7 @@
         <v>63</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="33"/>
@@ -5377,7 +5374,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="33"/>
@@ -5565,10 +5562,10 @@
         <v>66</v>
       </c>
       <c r="F35" s="32">
-        <v>45512</v>
+        <v>45513</v>
       </c>
       <c r="G35" s="33">
-        <v>45512</v>
+        <v>45513</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -5585,7 +5582,7 @@
       <c r="R35" s="34"/>
       <c r="S35" s="34"/>
       <c r="T35" s="34" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="U35" s="35"/>
       <c r="V35" s="36"/>
@@ -6733,7 +6730,7 @@
         <v>117</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="33"/>
@@ -6770,7 +6767,7 @@
         <v>118</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="33"/>
@@ -6807,7 +6804,7 @@
         <v>119</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="33"/>
@@ -6844,7 +6841,7 @@
         <v>120</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="33"/>
@@ -6881,7 +6878,7 @@
         <v>121</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="33"/>
@@ -6918,7 +6915,7 @@
         <v>122</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="33"/>
@@ -6955,7 +6952,7 @@
         <v>123</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="33"/>
@@ -6992,7 +6989,7 @@
         <v>124</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="33"/>
@@ -7029,7 +7026,7 @@
         <v>125</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="33"/>
@@ -7066,7 +7063,7 @@
         <v>126</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="33"/>
@@ -7103,7 +7100,7 @@
         <v>127</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="33"/>
@@ -7140,7 +7137,7 @@
         <v>128</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F77" s="32"/>
       <c r="G77" s="33"/>
@@ -7177,7 +7174,7 @@
         <v>129</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="33"/>
@@ -7214,7 +7211,7 @@
         <v>130</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="33"/>
@@ -7325,7 +7322,7 @@
         <v>135</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="33"/>
@@ -7362,7 +7359,7 @@
         <v>136</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="33"/>
@@ -7399,7 +7396,7 @@
         <v>137</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="33"/>
@@ -7436,7 +7433,7 @@
         <v>138</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="33"/>
@@ -7547,7 +7544,7 @@
         <v>143</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F88" s="32"/>
       <c r="G88" s="33"/>
@@ -7584,7 +7581,7 @@
         <v>144</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F89" s="32"/>
       <c r="G89" s="33"/>
@@ -7621,7 +7618,7 @@
         <v>145</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="33"/>
@@ -7658,7 +7655,7 @@
         <v>146</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="33"/>
@@ -7769,7 +7766,7 @@
         <v>151</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="33"/>
@@ -7843,7 +7840,7 @@
         <v>154</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="33"/>
@@ -7880,7 +7877,7 @@
         <v>155</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F97" s="32"/>
       <c r="G97" s="33"/>
@@ -7917,7 +7914,7 @@
         <v>156</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="33"/>
@@ -7991,7 +7988,7 @@
         <v>159</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="33"/>
@@ -8028,7 +8025,7 @@
         <v>160</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F101" s="32"/>
       <c r="G101" s="33"/>
@@ -8065,7 +8062,7 @@
         <v>161</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="33"/>
@@ -8139,7 +8136,7 @@
         <v>164</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="33"/>
@@ -8176,7 +8173,7 @@
         <v>165</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F105" s="32"/>
       <c r="G105" s="33"/>
@@ -8213,7 +8210,7 @@
         <v>166</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="33"/>
@@ -8287,7 +8284,7 @@
         <v>169</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="33"/>
@@ -8324,7 +8321,7 @@
         <v>170</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="33"/>
@@ -8361,7 +8358,7 @@
         <v>171</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="33"/>
@@ -8398,7 +8395,7 @@
         <v>172</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="33"/>
@@ -8435,7 +8432,7 @@
         <v>173</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="33"/>
@@ -8509,7 +8506,7 @@
         <v>176</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="33"/>
@@ -8546,7 +8543,7 @@
         <v>177</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F115" s="32"/>
       <c r="G115" s="33"/>
@@ -8583,7 +8580,7 @@
         <v>178</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="33"/>
@@ -8620,7 +8617,7 @@
         <v>179</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F117" s="32"/>
       <c r="G117" s="33"/>
@@ -8657,7 +8654,7 @@
         <v>180</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F118" s="32"/>
       <c r="G118" s="33"/>
@@ -8694,7 +8691,7 @@
         <v>181</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F119" s="32"/>
       <c r="G119" s="33"/>
@@ -8731,7 +8728,7 @@
         <v>182</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F120" s="32"/>
       <c r="G120" s="33"/>
@@ -8768,7 +8765,7 @@
         <v>183</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F121" s="32"/>
       <c r="G121" s="33"/>
@@ -8805,7 +8802,7 @@
         <v>184</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="33"/>
@@ -8842,7 +8839,7 @@
         <v>185</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="33"/>
@@ -8879,7 +8876,7 @@
         <v>186</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="33"/>
@@ -9027,7 +9024,7 @@
         <v>193</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F128" s="32"/>
       <c r="G128" s="33"/>
@@ -9175,7 +9172,7 @@
         <v>200</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="33"/>
@@ -9323,7 +9320,7 @@
         <v>207</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F136" s="32"/>
       <c r="G136" s="33"/>
@@ -9471,7 +9468,7 @@
         <v>214</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F140" s="32"/>
       <c r="G140" s="33"/>
@@ -9619,7 +9616,7 @@
         <v>221</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="33"/>
@@ -9767,7 +9764,7 @@
         <v>228</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="33"/>
@@ -9804,7 +9801,7 @@
         <v>229</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F149" s="32"/>
       <c r="G149" s="33"/>
@@ -9841,7 +9838,7 @@
         <v>230</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F150" s="32"/>
       <c r="G150" s="33"/>
@@ -9878,7 +9875,7 @@
         <v>231</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F151" s="32"/>
       <c r="G151" s="33"/>
@@ -9915,7 +9912,7 @@
         <v>232</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F152" s="32"/>
       <c r="G152" s="33"/>
@@ -9952,7 +9949,7 @@
         <v>233</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F153" s="32"/>
       <c r="G153" s="33"/>
@@ -10026,7 +10023,7 @@
         <v>236</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F155" s="32"/>
       <c r="G155" s="33"/>
@@ -10063,7 +10060,7 @@
         <v>237</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F156" s="32"/>
       <c r="G156" s="33"/>
@@ -10100,7 +10097,7 @@
         <v>238</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F157" s="32"/>
       <c r="G157" s="33"/>
@@ -10137,7 +10134,7 @@
         <v>239</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F158" s="32"/>
       <c r="G158" s="33"/>
@@ -10174,7 +10171,7 @@
         <v>240</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F159" s="32"/>
       <c r="G159" s="33"/>
@@ -10211,7 +10208,7 @@
         <v>241</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F160" s="32"/>
       <c r="G160" s="33"/>
@@ -10248,7 +10245,7 @@
         <v>242</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="33"/>
@@ -10359,7 +10356,7 @@
         <v>247</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="33"/>
@@ -10396,7 +10393,7 @@
         <v>248</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="33"/>
@@ -10433,7 +10430,7 @@
         <v>249</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="33"/>
@@ -10470,7 +10467,7 @@
         <v>250</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F167" s="32"/>
       <c r="G167" s="33"/>
@@ -10507,7 +10504,7 @@
         <v>251</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F168" s="32"/>
       <c r="G168" s="33"/>
@@ -10544,7 +10541,7 @@
         <v>252</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F169" s="32"/>
       <c r="G169" s="33"/>
@@ -10581,7 +10578,7 @@
         <v>253</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F170" s="32"/>
       <c r="G170" s="33"/>
@@ -10618,7 +10615,7 @@
         <v>254</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F171" s="32"/>
       <c r="G171" s="33"/>
@@ -10655,7 +10652,7 @@
         <v>255</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F172" s="32"/>
       <c r="G172" s="33"/>
@@ -10729,7 +10726,7 @@
         <v>260</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="33"/>
@@ -10766,7 +10763,7 @@
         <v>261</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F175" s="32"/>
       <c r="G175" s="33"/>
@@ -10803,7 +10800,7 @@
         <v>262</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F176" s="32"/>
       <c r="G176" s="33"/>
@@ -10840,7 +10837,7 @@
         <v>263</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F177" s="32"/>
       <c r="G177" s="33"/>
@@ -10877,7 +10874,7 @@
         <v>264</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F178" s="32"/>
       <c r="G178" s="33"/>
@@ -10914,7 +10911,7 @@
         <v>265</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F179" s="32"/>
       <c r="G179" s="33"/>
@@ -10988,7 +10985,7 @@
         <v>268</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F181" s="32"/>
       <c r="G181" s="33"/>
@@ -11025,7 +11022,7 @@
         <v>269</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F182" s="32"/>
       <c r="G182" s="33"/>
@@ -11062,7 +11059,7 @@
         <v>270</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F183" s="32"/>
       <c r="G183" s="33"/>
@@ -11099,7 +11096,7 @@
         <v>271</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F184" s="32"/>
       <c r="G184" s="33"/>
@@ -11136,7 +11133,7 @@
         <v>272</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F185" s="32"/>
       <c r="G185" s="33"/>
@@ -11173,7 +11170,7 @@
         <v>273</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F186" s="32"/>
       <c r="G186" s="33"/>
@@ -11210,7 +11207,7 @@
         <v>274</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F187" s="32"/>
       <c r="G187" s="33"/>
@@ -11247,7 +11244,7 @@
         <v>275</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F188" s="32"/>
       <c r="G188" s="33"/>
@@ -11284,7 +11281,7 @@
         <v>276</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F189" s="32"/>
       <c r="G189" s="33"/>
@@ -11321,7 +11318,7 @@
         <v>277</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F190" s="32"/>
       <c r="G190" s="33"/>
@@ -11358,7 +11355,7 @@
         <v>278</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F191" s="32"/>
       <c r="G191" s="33"/>
@@ -11395,7 +11392,7 @@
         <v>279</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F192" s="32"/>
       <c r="G192" s="33"/>
@@ -11418,7 +11415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="193" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A193" s="29">
         <v>371</v>
       </c>
@@ -11432,7 +11429,7 @@
         <v>280</v>
       </c>
       <c r="E193" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F193" s="32"/>
       <c r="G193" s="33"/>
@@ -11455,7 +11452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="194" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A194" s="29">
         <v>372</v>
       </c>
@@ -11469,7 +11466,7 @@
         <v>281</v>
       </c>
       <c r="E194" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F194" s="32"/>
       <c r="G194" s="33"/>
@@ -11492,7 +11489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="195" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A195" s="29">
         <v>373</v>
       </c>
@@ -11506,7 +11503,7 @@
         <v>282</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F195" s="32"/>
       <c r="G195" s="33"/>
@@ -11529,7 +11526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="33.950000000000003" customHeight="1">
+    <row r="196" spans="1:25" ht="33.950000000000003" customHeight="1">
       <c r="A196" s="29">
         <v>374</v>
       </c>
@@ -11543,7 +11540,7 @@
         <v>283</v>
       </c>
       <c r="E196" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F196" s="32"/>
       <c r="G196" s="33"/>
@@ -11566,7 +11563,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="197" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A197" s="40">
         <v>376</v>
       </c>
@@ -11580,7 +11577,7 @@
         <v>284</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F197" s="43"/>
       <c r="G197" s="44"/>
@@ -11603,7 +11600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="198" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A198" s="49">
         <v>417</v>
       </c>
@@ -11617,7 +11614,7 @@
         <v>330</v>
       </c>
       <c r="E198" s="51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F198" s="52"/>
       <c r="G198" s="53"/>
@@ -11640,7 +11637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="199" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A199" s="49">
         <v>418</v>
       </c>
@@ -11654,7 +11651,7 @@
         <v>331</v>
       </c>
       <c r="E199" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F199" s="52"/>
       <c r="G199" s="53"/>
@@ -11677,7 +11674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="200" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A200" s="49">
         <v>419</v>
       </c>
@@ -11691,7 +11688,7 @@
         <v>332</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F200" s="52"/>
       <c r="G200" s="53"/>
@@ -11714,7 +11711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="201" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A201" s="49">
         <v>423</v>
       </c>
@@ -11751,7 +11748,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="202" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A202" s="49">
         <v>424</v>
       </c>
@@ -11788,7 +11785,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="203" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A203" s="49">
         <v>425</v>
       </c>
@@ -11825,7 +11822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="204" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A204" s="49">
         <v>426</v>
       </c>
@@ -11839,7 +11836,7 @@
         <v>336</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F204" s="52"/>
       <c r="G204" s="53"/>
@@ -11861,18 +11858,9 @@
       <c r="W204" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y204" s="68">
-        <v>6</v>
-      </c>
-      <c r="Z204" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA204" t="e">
-        <f ca="1">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y204,"_KO")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y204" s="68"/>
+    </row>
+    <row r="205" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A205" s="49">
         <v>427</v>
       </c>
@@ -11886,7 +11874,7 @@
         <v>337</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F205" s="52"/>
       <c r="G205" s="53"/>
@@ -11908,19 +11896,9 @@
       <c r="W205" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y205" s="68">
-        <f>Y204+1</f>
-        <v>7</v>
-      </c>
-      <c r="Z205" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA205" t="e">
-        <f t="shared" ref="AA205:AA221" ca="1" si="0">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y205,"_KO")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y205" s="68"/>
+    </row>
+    <row r="206" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A206" s="49">
         <v>428</v>
       </c>
@@ -11934,7 +11912,7 @@
         <v>338</v>
       </c>
       <c r="E206" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F206" s="52"/>
       <c r="G206" s="53"/>
@@ -11956,19 +11934,9 @@
       <c r="W206" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y206" s="68">
-        <f t="shared" ref="Y206:Y221" si="1">Y205+1</f>
-        <v>8</v>
-      </c>
-      <c r="Z206" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA206" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y206" s="68"/>
+    </row>
+    <row r="207" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A207" s="49">
         <v>429</v>
       </c>
@@ -11982,7 +11950,7 @@
         <v>339</v>
       </c>
       <c r="E207" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F207" s="52"/>
       <c r="G207" s="53"/>
@@ -12004,19 +11972,9 @@
       <c r="W207" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y207" s="68">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Z207" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA207" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y207" s="68"/>
+    </row>
+    <row r="208" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A208" s="49">
         <v>430</v>
       </c>
@@ -12030,7 +11988,7 @@
         <v>340</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F208" s="52"/>
       <c r="G208" s="53"/>
@@ -12052,19 +12010,9 @@
       <c r="W208" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y208" s="68">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Z208" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA208" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y208" s="68"/>
+    </row>
+    <row r="209" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A209" s="49">
         <v>431</v>
       </c>
@@ -12078,7 +12026,7 @@
         <v>341</v>
       </c>
       <c r="E209" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F209" s="52"/>
       <c r="G209" s="53"/>
@@ -12100,19 +12048,9 @@
       <c r="W209" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y209" s="68">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="Z209" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA209" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y209" s="68"/>
+    </row>
+    <row r="210" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A210" s="49">
         <v>432</v>
       </c>
@@ -12126,7 +12064,7 @@
         <v>342</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F210" s="52"/>
       <c r="G210" s="53"/>
@@ -12148,19 +12086,9 @@
       <c r="W210" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y210" s="68">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="Z210" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA210" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y210" s="68"/>
+    </row>
+    <row r="211" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A211" s="49">
         <v>433</v>
       </c>
@@ -12174,7 +12102,7 @@
         <v>343</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F211" s="52"/>
       <c r="G211" s="53"/>
@@ -12196,19 +12124,9 @@
       <c r="W211" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y211" s="68">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Z211" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA211" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y211" s="68"/>
+    </row>
+    <row r="212" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A212" s="49">
         <v>434</v>
       </c>
@@ -12222,7 +12140,7 @@
         <v>344</v>
       </c>
       <c r="E212" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F212" s="52"/>
       <c r="G212" s="53"/>
@@ -12244,19 +12162,9 @@
       <c r="W212" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y212" s="68">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA212" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y212" s="68"/>
+    </row>
+    <row r="213" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A213" s="49">
         <v>435</v>
       </c>
@@ -12270,7 +12178,7 @@
         <v>345</v>
       </c>
       <c r="E213" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F213" s="52"/>
       <c r="G213" s="53"/>
@@ -12292,19 +12200,9 @@
       <c r="W213" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y213" s="68">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Z213" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA213" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y213" s="68"/>
+    </row>
+    <row r="214" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A214" s="49">
         <v>436</v>
       </c>
@@ -12318,7 +12216,7 @@
         <v>346</v>
       </c>
       <c r="E214" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F214" s="52"/>
       <c r="G214" s="53"/>
@@ -12340,19 +12238,9 @@
       <c r="W214" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y214" s="68">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="Z214" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA214" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y214" s="68"/>
+    </row>
+    <row r="215" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A215" s="49">
         <v>437</v>
       </c>
@@ -12366,7 +12254,7 @@
         <v>347</v>
       </c>
       <c r="E215" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F215" s="52"/>
       <c r="G215" s="53"/>
@@ -12388,19 +12276,9 @@
       <c r="W215" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y215" s="68">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="Z215" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA215" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y215" s="68"/>
+    </row>
+    <row r="216" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A216" s="49">
         <v>438</v>
       </c>
@@ -12414,7 +12292,7 @@
         <v>348</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F216" s="52"/>
       <c r="G216" s="53"/>
@@ -12436,19 +12314,9 @@
       <c r="W216" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y216" s="68">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="Z216" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA216" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y216" s="68"/>
+    </row>
+    <row r="217" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A217" s="49">
         <v>439</v>
       </c>
@@ -12462,7 +12330,7 @@
         <v>349</v>
       </c>
       <c r="E217" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F217" s="52"/>
       <c r="G217" s="53"/>
@@ -12484,19 +12352,9 @@
       <c r="W217" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y217" s="68">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="Z217" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA217" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y217" s="68"/>
+    </row>
+    <row r="218" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A218" s="49">
         <v>440</v>
       </c>
@@ -12510,7 +12368,7 @@
         <v>350</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F218" s="52"/>
       <c r="G218" s="53"/>
@@ -12532,19 +12390,9 @@
       <c r="W218" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y218" s="68">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Z218" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA218" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y218" s="68"/>
+    </row>
+    <row r="219" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A219" s="49">
         <v>441</v>
       </c>
@@ -12558,7 +12406,7 @@
         <v>351</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F219" s="52"/>
       <c r="G219" s="53"/>
@@ -12580,19 +12428,9 @@
       <c r="W219" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y219" s="68">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="Z219" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA219" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y219" s="68"/>
+    </row>
+    <row r="220" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A220" s="58">
         <v>442</v>
       </c>
@@ -12603,10 +12441,10 @@
         <v>329</v>
       </c>
       <c r="D220" s="41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E220" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F220" s="62"/>
       <c r="G220" s="63"/>
@@ -12628,19 +12466,9 @@
       <c r="W220" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="Y220" s="68">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="Z220" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA220" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y220" s="68"/>
+    </row>
+    <row r="221" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A221" s="49">
         <v>443</v>
       </c>
@@ -12651,10 +12479,10 @@
         <v>329</v>
       </c>
       <c r="D221" s="50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E221" s="51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F221" s="52"/>
       <c r="G221" s="53"/>
@@ -12676,19 +12504,9 @@
       <c r="W221" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y221" s="68">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="Z221" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA221" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+      <c r="Y221" s="68"/>
+    </row>
+    <row r="222" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A222" s="49">
         <v>444</v>
       </c>
@@ -12725,7 +12543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="11.1" hidden="1" customHeight="1" thickBot="1">
+    <row r="223" spans="1:25" ht="11.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A223" s="49">
         <v>445</v>
       </c>
@@ -12762,7 +12580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="224" spans="1:25" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A224" s="58">
         <v>446</v>
       </c>
@@ -12776,7 +12594,7 @@
         <v>48</v>
       </c>
       <c r="E224" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F224" s="43"/>
       <c r="G224" s="44"/>
@@ -12813,7 +12631,7 @@
         <v>49</v>
       </c>
       <c r="E225" s="51" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F225" s="52"/>
       <c r="G225" s="53"/>
@@ -17552,7 +17370,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>15</v>
@@ -17567,7 +17385,7 @@
         <v>320</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
@@ -17704,10 +17522,10 @@
         <v>287</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1"/>

--- a/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="507">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1936,6 +1936,9 @@
   </si>
   <si>
     <t>subject_application_version: Ver. 02.00</t>
+  </si>
+  <si>
+    <t>Errore: Il Campo obbligatorio "REFERTO" risulta vuoto.</t>
   </si>
 </sst>
 </file>
@@ -3180,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3260,7 +3263,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4330,10 +4333,10 @@
   <dimension ref="A1:Y809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5574,13 +5577,27 @@
       </c>
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
+      <c r="M35" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O35" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="P35" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q35" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R35" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="S35" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="T35" s="34" t="s">
         <v>67</v>
       </c>
@@ -19532,15 +19549,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19802,27 +19816,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19847,9 +19855,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="509">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1939,6 +1939,12 @@
   </si>
   <si>
     <t>Errore: Il Campo obbligatorio "REFERTO" risulta vuoto.</t>
+  </si>
+  <si>
+    <t>Errore: Il Campo CF PAZIENTE non valido.</t>
+  </si>
+  <si>
+    <t>E STATO SOSTITUITO IL VALORE CAMPO  CODICE FISCALE CON TEST</t>
   </si>
 </sst>
 </file>
@@ -3183,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -4333,10 +4339,10 @@
   <dimension ref="A1:Y809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5882,23 +5888,47 @@
       <c r="E43" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
+      <c r="F43" s="32">
+        <v>45516</v>
+      </c>
+      <c r="G43" s="33">
+        <v>45516</v>
+      </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
+      <c r="J43" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
+      <c r="M43" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N43" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O43" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="P43" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q43" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R43" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="S43" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="T43" s="34" t="s">
+        <v>67</v>
+      </c>
       <c r="U43" s="35"/>
-      <c r="V43" s="36"/>
+      <c r="V43" s="36" t="s">
+        <v>508</v>
+      </c>
       <c r="W43" s="37" t="s">
         <v>67</v>
       </c>
@@ -19549,12 +19579,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19816,21 +19849,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19855,18 +19894,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#DAMPSOFTWAREXXX/DAMP_sas/DAMP_-_Volare_FSE_-_LIS_-_RSA/Ver._02.00/accreditamento-checklist_V8.2.1.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="511">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1945,6 +1945,12 @@
   </si>
   <si>
     <t>E STATO SOSTITUITO IL VALORE CAMPO  CODICE FISCALE CON TEST</t>
+  </si>
+  <si>
+    <t>Errore di timeout. Riprovare più tardi.</t>
+  </si>
+  <si>
+    <t>Dopo il messaggio di errore di timeout si richiede all'utente di riprovare in un momento successivo.  un elenco di documenti non validati è disponibile per le prove successive. Tutti i documenti che in giornata subiscono un errore di timeout e che non vengono sottoposti a validazione in real time da parte dell'utente, vengono rittoposti alla validazione in automatico. Dopo 5 tentativi falliti di validazione causa timeout consecutivi (1 tentativo automatico l'ora), i documenti finiscono una console di errori che è messa a dispozione di specifici utenti. Sarà loro cura intervenire. Se necessario può sottoporre nuovamente a firma i referti che lo richiedono. Tutti i referti in stato di errore e che risultano modificati dopo la data dell'evento di errore e non ancora validati vengono rittoposti al sistema di validazione anche se di date passate tramite una procedura bach di recupero o in real time dall'utente che ha apportato la modifica. Questi documenti vengono evidenziati in modo diverso in quanto l'errore non è della validazione del documento ma sul fatto che il sistema remoto di validazione e down. Con il ritorno del sistema on-line tutti i documenti in errore di timeout vengono , da questa console, inviati direttamente dall'utente collegato.</t>
   </si>
 </sst>
 </file>
@@ -4339,10 +4345,10 @@
   <dimension ref="A1:Y809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomRight" activeCell="P150" sqref="P150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6216,20 +6222,40 @@
       <c r="E51" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
+      <c r="F51" s="32">
+        <v>45530</v>
+      </c>
+      <c r="G51" s="33">
+        <v>45530</v>
+      </c>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
-      <c r="J51" s="34"/>
+      <c r="J51" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
+      <c r="M51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O51" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="P51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="S51" s="34" t="s">
+        <v>510</v>
+      </c>
       <c r="T51" s="34"/>
       <c r="U51" s="35" t="s">
         <v>87</v>
@@ -9887,15 +9913,25 @@
       <c r="E150" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="F150" s="32"/>
-      <c r="G150" s="33"/>
+      <c r="F150" s="32">
+        <v>45530</v>
+      </c>
+      <c r="G150" s="33">
+        <v>45530</v>
+      </c>
       <c r="H150" s="33"/>
       <c r="I150" s="33"/>
-      <c r="J150" s="34"/>
+      <c r="J150" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="K150" s="34"/>
       <c r="L150" s="34"/>
-      <c r="M150" s="34"/>
-      <c r="N150" s="34"/>
+      <c r="M150" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="N150" s="34" t="s">
+        <v>307</v>
+      </c>
       <c r="O150" s="34"/>
       <c r="P150" s="34"/>
       <c r="Q150" s="34"/>
@@ -19579,15 +19615,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19849,27 +19882,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19894,9 +19921,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>